--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value923.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value923.xlsx
@@ -357,7 +357,7 @@
         <v>2.34985589035822</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>0.9736957845793739</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value923.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value923.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.378808932628031</v>
+        <v>0.9549548625946045</v>
       </c>
       <c r="B1">
-        <v>1.689800294252725</v>
+        <v>1.4534672498703</v>
       </c>
       <c r="C1">
-        <v>2.34985589035822</v>
+        <v>2.715541124343872</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.568399310112</v>
       </c>
       <c r="E1">
-        <v>0.9736957845793739</v>
+        <v>1.446734309196472</v>
       </c>
     </row>
   </sheetData>
